--- a/Tasks/ODN-22/ODN-22.xlsx
+++ b/Tasks/ODN-22/ODN-22.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\opticsdotnet\Tasks\ODN-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C8E7A-369C-4BF1-9D05-CE426F5E3230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5133D3-CC71-4404-8C0F-92C6D3AA5A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
+    <workbookView xWindow="1770" yWindow="2610" windowWidth="16410" windowHeight="16280" activeTab="2" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1in" sheetId="1" r:id="rId1"/>
     <sheet name="30mm" sheetId="2" r:id="rId2"/>
+    <sheet name="38.1mm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="42">
   <si>
     <t>LA1951</t>
   </si>
@@ -181,6 +204,24 @@
   </si>
   <si>
     <t>LA1237</t>
+  </si>
+  <si>
+    <t>LA1385</t>
+  </si>
+  <si>
+    <t>1.5"</t>
+  </si>
+  <si>
+    <t>LA1386</t>
+  </si>
+  <si>
+    <t>LA1387</t>
+  </si>
+  <si>
+    <t>LA1388</t>
+  </si>
+  <si>
+    <t>LA1389</t>
   </si>
 </sst>
 </file>
@@ -328,6 +369,72 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+    <v>Plano-Convex Lens Drawing</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C2A6B6-C973-400D-9A20-2F5270541A64}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="K1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2405,4 +2512,320 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1F58E-BAA7-46C1-A236-7D33CBF02997}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="F1" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="I1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="str">
+        <f>A1</f>
+        <v>LA1385</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1">
+        <f>F1/1000</f>
+        <v>1.09E-2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <f>38.1/2000</f>
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1">
+        <f>E1/1000</f>
+        <v>2.58E-2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L5" si="0">A2</f>
+        <v>LA1386</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N5" si="1">F2/1000</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P5" si="2">38.1/2000</f>
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R5" si="3">E2/1000</f>
+        <v>3.8799999999999994E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>96</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1387</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999995E-3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="3"/>
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1388</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>197.2</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1389</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tasks/ODN-22/ODN-22.xlsx
+++ b/Tasks/ODN-22/ODN-22.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\opticsdotnet\Tasks\ODN-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5133D3-CC71-4404-8C0F-92C6D3AA5A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85F1A8-F962-4DD6-99CB-263F60522F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2610" windowWidth="16410" windowHeight="16280" activeTab="2" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
+    <workbookView xWindow="1770" yWindow="2610" windowWidth="16410" windowHeight="16280" activeTab="3" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1in" sheetId="1" r:id="rId1"/>
     <sheet name="30mm" sheetId="2" r:id="rId2"/>
     <sheet name="38.1mm" sheetId="3" r:id="rId3"/>
+    <sheet name="2in" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="56">
   <si>
     <t>LA1951</t>
   </si>
@@ -222,6 +223,48 @@
   </si>
   <si>
     <t>LA1389</t>
+  </si>
+  <si>
+    <t>LA1401</t>
+  </si>
+  <si>
+    <t>2"</t>
+  </si>
+  <si>
+    <t>LA1145</t>
+  </si>
+  <si>
+    <t>LA1050</t>
+  </si>
+  <si>
+    <t>LA1384</t>
+  </si>
+  <si>
+    <t>LA1417</t>
+  </si>
+  <si>
+    <t>LA1399</t>
+  </si>
+  <si>
+    <t>LA1979</t>
+  </si>
+  <si>
+    <t>LA1301</t>
+  </si>
+  <si>
+    <t>LA1256</t>
+  </si>
+  <si>
+    <t>LA1725</t>
+  </si>
+  <si>
+    <t>LA1380</t>
+  </si>
+  <si>
+    <t>LA1727</t>
+  </si>
+  <si>
+    <t>LA1779</t>
   </si>
 </sst>
 </file>
@@ -2518,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1F58E-BAA7-46C1-A236-7D33CBF02997}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2828,4 +2871,781 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91B2358-7C54-4A52-97AD-1C6A63488DD8}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="D1" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="E1" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="F1" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="I1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="str">
+        <f>A1</f>
+        <v>LA1401</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1">
+        <f>F1/1000</f>
+        <v>1.6300000000000002E-2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1">
+        <f>E1/1000</f>
+        <v>3.0899999999999997E-2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L3" si="0">A2</f>
+        <v>LA1145</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N3" si="1">F2/1000</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R3" si="2">E2/1000</f>
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1050</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999986E-3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>119.2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L13" si="3">A4</f>
+        <v>LA1384</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N13" si="4">F4/1000</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R13" si="5">E4/1000</f>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>149.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1417</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <v>174.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>170</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1399</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>9.01E-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>199.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>195.3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1979</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>249.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>245.5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1301</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>0.1288</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>299</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>154.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1256</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999995E-3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>0.1545</v>
+      </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>398.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>206</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>395.7</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1725</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2">
+        <v>498.3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>257.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>495.5</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1380</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>747.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>386.3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>745</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1727</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>0.38630000000000003</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2">
+        <v>996.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>515.1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>994.3</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>LA1779</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0.5151</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tasks/ODN-22/ODN-22.xlsx
+++ b/Tasks/ODN-22/ODN-22.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\opticsdotnet\Tasks\ODN-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85F1A8-F962-4DD6-99CB-263F60522F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96F40F-90D2-42AF-8CCB-2D33CFF9D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2610" windowWidth="16410" windowHeight="16280" activeTab="3" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1in" sheetId="1" r:id="rId1"/>
     <sheet name="30mm" sheetId="2" r:id="rId2"/>
     <sheet name="38.1mm" sheetId="3" r:id="rId3"/>
     <sheet name="2in" sheetId="4" r:id="rId4"/>
+    <sheet name="75mm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="60">
   <si>
     <t>LA1951</t>
   </si>
@@ -265,6 +266,18 @@
   </si>
   <si>
     <t>LA1779</t>
+  </si>
+  <si>
+    <t>LA1740</t>
+  </si>
+  <si>
+    <t>LA1238</t>
+  </si>
+  <si>
+    <t>LA1002</t>
+  </si>
+  <si>
+    <t>LA1353</t>
   </si>
 </sst>
 </file>
@@ -2877,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91B2358-7C54-4A52-97AD-1C6A63488DD8}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3648,4 +3661,272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E256BFFC-34D2-4523-9867-AB3A591F43F3}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="D1" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="F1" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <v>68.8</v>
+      </c>
+      <c r="I1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="str">
+        <f>A1</f>
+        <v>LA1740</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1">
+        <f>F1/1000</f>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1">
+        <f>0.075/2</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1">
+        <f>E1/1000</f>
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2">
+        <v>99.7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>87</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L4" si="0">A2</f>
+        <v>LA1238</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N4" si="1">F2/1000</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P4" si="2">0.075/2</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R4" si="3">E2/1000</f>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2">
+        <v>149.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>141.1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1002</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="3"/>
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2">
+        <v>199.3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>103</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>192.7</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>LA1353</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tasks/ODN-22/ODN-22.xlsx
+++ b/Tasks/ODN-22/ODN-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\opticsdotnet\Tasks\ODN-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D96F40F-90D2-42AF-8CCB-2D33CFF9D2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020A675-2677-4EBF-80AB-1C74EDC67434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1in" sheetId="1" r:id="rId1"/>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A273E92D-A006-4804-89D8-BEB40C5EC2F8}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,7 +866,7 @@
         <v>23</v>
       </c>
       <c r="P1">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -923,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="P2">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -980,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="P3">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="P4">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -1094,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="P5">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -1151,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="P6">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -1208,7 +1208,7 @@
         <v>23</v>
       </c>
       <c r="P7">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -1265,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="P8">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
@@ -1322,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="P9">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
@@ -1379,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="P10">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
@@ -1436,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="P11">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
@@ -1493,7 +1493,7 @@
         <v>23</v>
       </c>
       <c r="P12">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="P13">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q13" t="s">
         <v>23</v>
@@ -1607,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="P14">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>23</v>
@@ -1664,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="P15">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>23</v>
@@ -1721,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="P16">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>23</v>
@@ -1778,7 +1778,7 @@
         <v>23</v>
       </c>
       <c r="P17">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q17" t="s">
         <v>23</v>
@@ -1835,7 +1835,7 @@
         <v>23</v>
       </c>
       <c r="P18">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q18" t="s">
         <v>23</v>
@@ -1892,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="P19">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q19" t="s">
         <v>23</v>
@@ -1949,7 +1949,7 @@
         <v>23</v>
       </c>
       <c r="P20">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
@@ -2006,7 +2006,7 @@
         <v>23</v>
       </c>
       <c r="P21">
-        <v>0.127</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Q21" t="s">
         <v>23</v>
@@ -3667,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E256BFFC-34D2-4523-9867-AB3A591F43F3}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>

--- a/Tasks/ODN-22/ODN-22.xlsx
+++ b/Tasks/ODN-22/ODN-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\opticsdotnet\Tasks\ODN-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020A675-2677-4EBF-80AB-1C74EDC67434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCF4A8-C122-4F7C-A179-67A8CBA21556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{CB0C0625-BF89-43DB-88C3-E3E53FDDC7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="1in" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A273E92D-A006-4804-89D8-BEB40C5EC2F8}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P21"/>
     </sheetView>
   </sheetViews>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C2A6B6-C973-400D-9A20-2F5270541A64}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="K1:S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2088,7 +2088,7 @@
         <v>23</v>
       </c>
       <c r="P1">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -2145,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="P2">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -2202,7 +2202,7 @@
         <v>23</v>
       </c>
       <c r="P3">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
@@ -2259,7 +2259,7 @@
         <v>23</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -2316,7 +2316,7 @@
         <v>23</v>
       </c>
       <c r="P5">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>23</v>
@@ -2373,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="P6">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>23</v>
@@ -2430,7 +2430,7 @@
         <v>23</v>
       </c>
       <c r="P7">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -2487,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="P8">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
@@ -2544,7 +2544,7 @@
         <v>23</v>
       </c>
       <c r="P9">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
